--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>sim_tbl</t>
   </si>
@@ -232,6 +232,72 @@
   </si>
   <si>
     <t>sl</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段代码</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>字段属性</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>UINT</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY NOT NULL AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>经理姓名</t>
+  </si>
+  <si>
+    <t>jlxm</t>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>dj</t>
+  </si>
+  <si>
+    <t>激活日期</t>
+  </si>
+  <si>
+    <t>jhrq</t>
   </si>
 </sst>
 </file>
@@ -239,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -254,24 +320,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +341,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,8 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,21 +381,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +402,29 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -359,10 +433,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,23 +449,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,11 +666,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,36 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -683,16 +740,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -705,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,138 +783,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,17 +1268,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1718,6 +1788,408 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <f ca="1">TODAY()</f>
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" t="s">
         <v>28</v>
       </c>
     </row>

--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -320,14 +320,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,24 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,14 +359,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,16 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +388,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,19 +426,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -472,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +663,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -677,6 +703,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,7 +735,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,50 +763,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -771,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,124 +792,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1798,7 +1798,7 @@
     <row r="65" spans="1:1">
       <c r="A65" s="1">
         <f ca="1">TODAY()</f>
-        <v>43192</v>
+        <v>43193</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -2127,69 +2127,80 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>90</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
       </c>
-      <c r="D98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
       </c>
+      <c r="D99" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>36</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>35</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>28</v>
       </c>
     </row>
